--- a/UseCaseIScenarij/DodoavanjeIazuriranjeProizvoda.xlsx
+++ b/UseCaseIScenarij/DodoavanjeIazuriranjeProizvoda.xlsx
@@ -93,7 +93,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -101,13 +101,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -391,7 +407,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A3" sqref="A3:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -412,59 +428,79 @@
       <c r="E1" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D5" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D6" t="s">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D9" t="s">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="D10" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/UseCaseIScenarij/DodoavanjeIazuriranjeProizvoda.xlsx
+++ b/UseCaseIScenarij/DodoavanjeIazuriranjeProizvoda.xlsx
@@ -41,9 +41,6 @@
     <t xml:space="preserve"> Menadžer</t>
   </si>
   <si>
-    <t xml:space="preserve"> Baza podataka</t>
-  </si>
-  <si>
     <t>2. Pretraga podataka</t>
   </si>
   <si>
@@ -60,6 +57,9 @@
   </si>
   <si>
     <t>7. Odobravanje promjena</t>
+  </si>
+  <si>
+    <t>Analiza sadržaja</t>
   </si>
 </sst>
 </file>
@@ -407,7 +407,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D10"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,7 +438,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -454,7 +454,7 @@
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -462,12 +462,12 @@
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -475,7 +475,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -486,16 +486,16 @@
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" s="2"/>
     </row>
